--- a/LINES_OF_CODE_TABLE.xlsx
+++ b/LINES_OF_CODE_TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodevmo\Desktop\AtomicChessOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ACAC80-AB1D-4940-B503-56A040C0DE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C792EC9-1A29-4CF3-8017-0DAE483257F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A6D139B5-93CD-49BC-B548-D4F55E00437C}"/>
+    <workbookView xWindow="-11355" yWindow="6060" windowWidth="23475" windowHeight="16890" xr2:uid="{A6D139B5-93CD-49BC-B548-D4F55E00437C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>GOLANG</t>
   </si>
@@ -93,40 +93,28 @@
     <t>IOCONTROLLER</t>
   </si>
   <si>
-    <t>PROTOTYP_0</t>
+    <t>MASTER</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>CI</t>
   </si>
   <si>
-    <t>PROD</t>
+    <t>QTUI</t>
   </si>
   <si>
-    <t>FILAMENT PLA</t>
+    <t>DOCUMENTATION</t>
   </si>
   <si>
-    <t>RESIGN</t>
-  </si>
-  <si>
-    <t>ITEM 20x20</t>
-  </si>
-  <si>
-    <t>V SLOT 20x20</t>
-  </si>
-  <si>
-    <t>Magnete 10x3mm</t>
-  </si>
-  <si>
-    <t>NFC Tags</t>
-  </si>
-  <si>
-    <t>GT20 Riemen</t>
+    <t>LINES OF PRODUCTIVE CODE PER GIT COMMIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,9 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1130,7 +1119,791 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7725258493353029E-2"/>
+          <c:y val="0.18893837505104866"/>
+          <c:w val="0.95667159034958149"/>
+          <c:h val="0.67519403993848848"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$1:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>MASTER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BUILDROOT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IOCONTROLLER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CONTROLLER</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>QTUI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SERVER</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DOCUMENTATION</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MISC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="24"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="53"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4849-4DBC-B0CB-D779CCED5575}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$N$1:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>MASTER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BUILDROOT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IOCONTROLLER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CONTROLLER</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>QTUI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SERVER</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DOCUMENTATION</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MISC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$1:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4849-4DBC-B0CB-D779CCED5575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1701,6 +2474,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1711,10 +2980,10 @@
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1734,6 +3003,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE38C44-0997-48D3-9A81-04C9648C7070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2039,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D042AD9-7830-4653-BFF7-91D0268D992E}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,11 +3358,17 @@
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2086,11 +3397,14 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>22</v>
+      <c r="M1" s="1">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2119,11 +3433,14 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
+      <c r="M2" s="1">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2152,11 +3469,14 @@
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
+      <c r="M3" s="1">
+        <v>192</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2185,11 +3505,14 @@
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
-        <v>25</v>
+      <c r="M4" s="1">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2218,11 +3541,14 @@
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
+      <c r="M5" s="1">
+        <v>166</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2251,11 +3577,14 @@
       <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
+      <c r="M6" s="1">
+        <v>177</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2284,11 +3613,14 @@
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
+      <c r="M7" s="1">
+        <v>62</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2317,8 +3649,14 @@
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2347,8 +3685,14 @@
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M9" s="1">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2377,8 +3721,10 @@
       <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2407,8 +3753,10 @@
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2437,8 +3785,10 @@
       <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2464,8 +3814,10 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2488,15 +3840,22 @@
         <f>SUM(H1:H13)</f>
         <v>19561</v>
       </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <f>SUM(M1:M12)</f>
+        <v>661</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2">
+        <f>H14/M14</f>
+        <v>29.593040847201209</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/LINES_OF_CODE_TABLE.xlsx
+++ b/LINES_OF_CODE_TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodevmo\Desktop\AtomicChessOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C792EC9-1A29-4CF3-8017-0DAE483257F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3786FDA8-BE75-4790-932B-B91697546614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11355" yWindow="6060" windowWidth="23475" windowHeight="16890" xr2:uid="{A6D139B5-93CD-49BC-B548-D4F55E00437C}"/>
+    <workbookView xWindow="8280" yWindow="3750" windowWidth="23475" windowHeight="16890" xr2:uid="{A6D139B5-93CD-49BC-B548-D4F55E00437C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>GOLANG</t>
   </si>
@@ -107,13 +107,16 @@
   <si>
     <t>LINES OF PRODUCTIVE CODE PER GIT COMMIT</t>
   </si>
+  <si>
+    <t>DATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +158,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -978,7 +981,7 @@
                   <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2993</c:v>
+                  <c:v>3193</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>665</c:v>
@@ -993,10 +996,10 @@
                   <c:v>1909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10109</c:v>
+                  <c:v>10209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>709</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>272</c:v>
@@ -1268,6 +1271,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1311,6 +1319,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1354,6 +1367,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1397,6 +1415,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1489,6 +1512,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1535,6 +1563,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1581,6 +1614,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1627,6 +1665,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-EE98-4AF5-B50D-D17247B15E89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1730,19 +1773,19 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -3346,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D042AD9-7830-4653-BFF7-91D0268D992E}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,6 +3482,12 @@
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>6012020</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3470,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>10</v>
@@ -3517,7 +3566,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2993</v>
+        <v>3193</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3536,13 +3585,13 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>2993</v>
+        <v>3193</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>11</v>
@@ -3578,7 +3627,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="1">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>21</v>
@@ -3614,7 +3663,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>7</v>
@@ -3706,7 +3755,7 @@
         <v>1128</v>
       </c>
       <c r="E10">
-        <v>8803</v>
+        <v>8903</v>
       </c>
       <c r="F10">
         <v>178</v>
@@ -3716,7 +3765,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>10109</v>
+        <v>10209</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -3735,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3748,7 +3797,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>13</v>
@@ -3838,17 +3887,17 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(H1:H13)</f>
-        <v>19561</v>
+        <v>19961</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
         <f>SUM(M1:M12)</f>
-        <v>661</v>
+        <v>702</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="2">
         <f>H14/M14</f>
-        <v>29.593040847201209</v>
+        <v>28.434472934472936</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>23</v>
